--- a/resource/himeji/shop_list.xlsx
+++ b/resource/himeji/shop_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/himeji/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A4A065-4D4B-C34B-984C-8683672D977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104F803F-A7FC-6C48-AE8E-84BD8D43ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="2580" windowWidth="32920" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2720" yWindow="2240" windowWidth="32920" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shop_list" sheetId="1" r:id="rId1"/>
@@ -1478,22 +1478,22 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1509,11 +1509,11 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1529,11 +1529,11 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1546,11 +1546,11 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1563,11 +1563,11 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -1580,11 +1580,11 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1597,11 +1597,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="21">
-      <c r="A7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1614,11 +1614,11 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1631,11 +1631,11 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
         <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1648,11 +1648,11 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
         <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -1665,11 +1665,11 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
         <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1682,11 +1682,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="21">
-      <c r="A12">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
         <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -1699,11 +1699,11 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -1716,11 +1716,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="21">
-      <c r="A14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -1733,11 +1733,11 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -1750,11 +1750,11 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -1767,11 +1767,11 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
         <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -1784,11 +1784,11 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
         <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
@@ -1801,11 +1801,11 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
         <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -1818,11 +1818,11 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
         <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>149</v>
@@ -1835,11 +1835,11 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
         <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>52</v>
@@ -1852,11 +1852,11 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
         <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>55</v>
@@ -1869,11 +1869,11 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
         <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>58</v>
@@ -1886,11 +1886,11 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
         <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>61</v>
@@ -1903,11 +1903,11 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
         <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -1920,11 +1920,11 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
         <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>66</v>
@@ -1937,11 +1937,11 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
         <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>69</v>
@@ -1954,11 +1954,11 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
         <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
@@ -1971,11 +1971,11 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
         <v>43</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>74</v>
@@ -1988,11 +1988,11 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
         <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>76</v>
@@ -2005,11 +2005,11 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
         <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>79</v>
@@ -2022,11 +2022,11 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
         <v>46</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>81</v>
@@ -2039,11 +2039,11 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
         <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>83</v>
@@ -2056,11 +2056,11 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
         <v>48</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>150</v>
@@ -2073,11 +2073,11 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="21">
-      <c r="A35">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
         <v>49</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>87</v>
@@ -2090,11 +2090,11 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36">
         <v>50</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>89</v>
@@ -2107,11 +2107,11 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
         <v>51</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>91</v>
@@ -2124,11 +2124,11 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38">
         <v>52</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>94</v>
@@ -2141,11 +2141,11 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
         <v>53</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>96</v>
@@ -2158,11 +2158,11 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
         <v>54</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>151</v>
@@ -2175,11 +2175,11 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
         <v>55</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>101</v>
@@ -2192,11 +2192,11 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
         <v>56</v>
-      </c>
-      <c r="B42" t="s">
-        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>104</v>
@@ -2209,11 +2209,11 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43">
         <v>58</v>
-      </c>
-      <c r="B43" t="s">
-        <v>106</v>
       </c>
       <c r="C43" t="s">
         <v>107</v>
@@ -2226,11 +2226,11 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44">
         <v>59</v>
-      </c>
-      <c r="B44" t="s">
-        <v>106</v>
       </c>
       <c r="C44" t="s">
         <v>110</v>
@@ -2243,11 +2243,11 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45">
         <v>60</v>
-      </c>
-      <c r="B45" t="s">
-        <v>106</v>
       </c>
       <c r="C45" t="s">
         <v>152</v>
@@ -2260,11 +2260,11 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46">
         <v>61</v>
-      </c>
-      <c r="B46" t="s">
-        <v>106</v>
       </c>
       <c r="C46" t="s">
         <v>113</v>
@@ -2277,11 +2277,11 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47">
         <v>62</v>
-      </c>
-      <c r="B47" t="s">
-        <v>106</v>
       </c>
       <c r="C47" t="s">
         <v>115</v>
@@ -2294,11 +2294,11 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48">
         <v>63</v>
-      </c>
-      <c r="B48" t="s">
-        <v>106</v>
       </c>
       <c r="C48" t="s">
         <v>117</v>
@@ -2311,11 +2311,11 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49">
         <v>64</v>
-      </c>
-      <c r="B49" t="s">
-        <v>106</v>
       </c>
       <c r="C49" t="s">
         <v>120</v>
@@ -2328,11 +2328,11 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50">
         <v>65</v>
-      </c>
-      <c r="B50" t="s">
-        <v>106</v>
       </c>
       <c r="C50" t="s">
         <v>121</v>
@@ -2345,11 +2345,11 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51">
         <v>66</v>
-      </c>
-      <c r="B51" t="s">
-        <v>106</v>
       </c>
       <c r="C51" t="s">
         <v>124</v>
@@ -2362,11 +2362,11 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52">
         <v>67</v>
-      </c>
-      <c r="B52" t="s">
-        <v>106</v>
       </c>
       <c r="C52" t="s">
         <v>127</v>
@@ -2379,11 +2379,11 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53">
         <v>68</v>
-      </c>
-      <c r="B53" t="s">
-        <v>106</v>
       </c>
       <c r="C53" t="s">
         <v>129</v>
@@ -2396,11 +2396,11 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54">
         <v>69</v>
-      </c>
-      <c r="B54" t="s">
-        <v>106</v>
       </c>
       <c r="C54" t="s">
         <v>131</v>
@@ -2413,11 +2413,11 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55">
+      <c r="A55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55">
         <v>71</v>
-      </c>
-      <c r="B55" t="s">
-        <v>134</v>
       </c>
       <c r="C55" t="s">
         <v>153</v>
@@ -2430,11 +2430,11 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56">
+      <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56">
         <v>72</v>
-      </c>
-      <c r="B56" t="s">
-        <v>134</v>
       </c>
       <c r="C56" t="s">
         <v>137</v>
@@ -2447,11 +2447,11 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57">
+      <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57">
         <v>73</v>
-      </c>
-      <c r="B57" t="s">
-        <v>134</v>
       </c>
       <c r="C57" t="s">
         <v>139</v>
@@ -2464,11 +2464,11 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="21">
-      <c r="A58">
+      <c r="A58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58">
         <v>74</v>
-      </c>
-      <c r="B58" t="s">
-        <v>134</v>
       </c>
       <c r="C58" t="s">
         <v>142</v>
@@ -2481,11 +2481,11 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59">
+      <c r="A59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59">
         <v>75</v>
-      </c>
-      <c r="B59" t="s">
-        <v>134</v>
       </c>
       <c r="C59" t="s">
         <v>144</v>
@@ -2498,11 +2498,11 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="21">
-      <c r="A60">
+      <c r="A60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60">
         <v>76</v>
-      </c>
-      <c r="B60" t="s">
-        <v>134</v>
       </c>
       <c r="C60" t="s">
         <v>147</v>

--- a/resource/himeji/shop_list.xlsx
+++ b/resource/himeji/shop_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/himeji/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104F803F-A7FC-6C48-AE8E-84BD8D43ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE676159-A87A-CF41-884E-51D12BA34944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="2240" windowWidth="32920" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="2240" windowWidth="32920" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shop_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="163">
   <si>
     <t>ページ</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>不定休</t>
+  </si>
+  <si>
+    <t>NEW/復活</t>
   </si>
 </sst>
 </file>
@@ -1475,20 +1478,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1502,13 +1506,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1521,14 +1528,14 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1541,11 +1548,11 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1558,11 +1565,11 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1575,11 +1582,11 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1592,11 +1599,11 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21">
+    <row r="7" spans="1:7" ht="21">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1609,11 +1616,11 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1626,11 +1633,11 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1643,11 +1650,11 @@
       <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1660,11 +1667,11 @@
       <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1677,11 +1684,11 @@
       <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21">
+    <row r="12" spans="1:7" ht="21">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1694,11 +1701,11 @@
       <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1711,11 +1718,11 @@
       <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21">
+    <row r="14" spans="1:7" ht="21">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1728,11 +1735,11 @@
       <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1745,11 +1752,11 @@
       <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1762,11 +1769,11 @@
       <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1779,11 +1786,11 @@
       <c r="D17" t="s">
         <v>44</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1796,11 +1803,11 @@
       <c r="D18" t="s">
         <v>46</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1813,11 +1820,11 @@
       <c r="D19" t="s">
         <v>49</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1830,11 +1837,11 @@
       <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1847,11 +1854,11 @@
       <c r="D21" t="s">
         <v>53</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1864,11 +1871,11 @@
       <c r="D22" t="s">
         <v>56</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1881,11 +1888,11 @@
       <c r="D23" t="s">
         <v>59</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1898,11 +1905,11 @@
       <c r="D24" t="s">
         <v>62</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1915,11 +1922,11 @@
       <c r="D25" t="s">
         <v>64</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1932,11 +1939,11 @@
       <c r="D26" t="s">
         <v>67</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1949,11 +1956,11 @@
       <c r="D27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1966,11 +1973,11 @@
       <c r="D28" t="s">
         <v>73</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1983,11 +1990,11 @@
       <c r="D29" t="s">
         <v>75</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2000,11 +2007,11 @@
       <c r="D30" t="s">
         <v>77</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2017,11 +2024,11 @@
       <c r="D31" t="s">
         <v>80</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2034,11 +2041,11 @@
       <c r="D32" t="s">
         <v>82</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2051,11 +2058,11 @@
       <c r="D33" t="s">
         <v>84</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2068,11 +2075,11 @@
       <c r="D34" t="s">
         <v>86</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="21">
+    <row r="35" spans="1:6" ht="21">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2085,11 +2092,11 @@
       <c r="D35" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2102,11 +2109,11 @@
       <c r="D36" t="s">
         <v>90</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2119,11 +2126,11 @@
       <c r="D37" t="s">
         <v>92</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2136,11 +2143,11 @@
       <c r="D38" t="s">
         <v>95</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2153,11 +2160,11 @@
       <c r="D39" t="s">
         <v>97</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2170,11 +2177,11 @@
       <c r="D40" t="s">
         <v>99</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2187,11 +2194,11 @@
       <c r="D41" t="s">
         <v>102</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2204,11 +2211,11 @@
       <c r="D42" t="s">
         <v>105</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -2221,11 +2228,11 @@
       <c r="D43" t="s">
         <v>108</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>106</v>
       </c>
@@ -2238,11 +2245,11 @@
       <c r="D44" t="s">
         <v>111</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -2255,11 +2262,11 @@
       <c r="D45" t="s">
         <v>112</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -2272,11 +2279,11 @@
       <c r="D46" t="s">
         <v>114</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -2289,11 +2296,11 @@
       <c r="D47" t="s">
         <v>116</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -2306,11 +2313,11 @@
       <c r="D48" t="s">
         <v>118</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -2323,11 +2330,11 @@
       <c r="D49" t="s">
         <v>118</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -2340,11 +2347,11 @@
       <c r="D50" t="s">
         <v>122</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -2357,11 +2364,11 @@
       <c r="D51" t="s">
         <v>125</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>106</v>
       </c>
@@ -2374,11 +2381,11 @@
       <c r="D52" t="s">
         <v>128</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>106</v>
       </c>
@@ -2391,11 +2398,11 @@
       <c r="D53" t="s">
         <v>130</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -2408,11 +2415,11 @@
       <c r="D54" t="s">
         <v>132</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -2425,11 +2432,11 @@
       <c r="D55" t="s">
         <v>135</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>134</v>
       </c>
@@ -2442,11 +2449,11 @@
       <c r="D56" t="s">
         <v>138</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -2459,11 +2466,11 @@
       <c r="D57" t="s">
         <v>140</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="21">
+    <row r="58" spans="1:6" ht="21">
       <c r="A58" t="s">
         <v>134</v>
       </c>
@@ -2476,11 +2483,11 @@
       <c r="D58" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>134</v>
       </c>
@@ -2493,11 +2500,11 @@
       <c r="D59" t="s">
         <v>145</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="21">
+    <row r="60" spans="1:6" ht="21">
       <c r="A60" t="s">
         <v>134</v>
       </c>
@@ -2510,7 +2517,7 @@
       <c r="D60" t="s">
         <v>148</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>158</v>
       </c>
     </row>

--- a/resource/himeji/shop_list.xlsx
+++ b/resource/himeji/shop_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/himeji/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE676159-A87A-CF41-884E-51D12BA34944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DA796B-9DC8-884C-909F-177F13426917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="2240" windowWidth="32920" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="167">
   <si>
     <t>ページ</t>
   </si>
@@ -524,6 +524,19 @@
   </si>
   <si>
     <t>NEW/復活</t>
+  </si>
+  <si>
+    <t>期間延長日</t>
+  </si>
+  <si>
+    <t>閉店フラグ</t>
+  </si>
+  <si>
+    <t>お知らせ</t>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1478,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1492,7 +1505,7 @@
     <col min="6" max="6" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1514,8 +1527,17 @@
       <c r="G1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1534,8 +1556,17 @@
       <c r="G2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1551,8 +1582,17 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1568,8 +1608,17 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1585,8 +1634,17 @@
       <c r="F5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1602,8 +1660,17 @@
       <c r="F6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="21">
+      <c r="H6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1619,8 +1686,17 @@
       <c r="F7" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1636,8 +1712,17 @@
       <c r="F8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1653,8 +1738,17 @@
       <c r="F9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1670,8 +1764,17 @@
       <c r="F10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>166</v>
+      </c>
+      <c r="I10" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1687,8 +1790,17 @@
       <c r="F11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="21">
+      <c r="H11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1704,8 +1816,17 @@
       <c r="F12" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" t="s">
+        <v>166</v>
+      </c>
+      <c r="J12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1721,8 +1842,17 @@
       <c r="F13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="21">
+      <c r="H13" t="s">
+        <v>166</v>
+      </c>
+      <c r="I13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1738,8 +1868,17 @@
       <c r="F14" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I14" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1755,8 +1894,17 @@
       <c r="F15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1772,8 +1920,17 @@
       <c r="F16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1789,8 +1946,17 @@
       <c r="F17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1806,8 +1972,17 @@
       <c r="F18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1823,8 +1998,17 @@
       <c r="F19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1840,8 +2024,17 @@
       <c r="F20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1857,8 +2050,17 @@
       <c r="F21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1874,8 +2076,17 @@
       <c r="F22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" t="s">
+        <v>166</v>
+      </c>
+      <c r="J22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1891,8 +2102,17 @@
       <c r="F23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="H23" t="s">
+        <v>166</v>
+      </c>
+      <c r="I23" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1908,8 +2128,17 @@
       <c r="F24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24" t="s">
+        <v>166</v>
+      </c>
+      <c r="I24" t="s">
+        <v>166</v>
+      </c>
+      <c r="J24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1925,8 +2154,17 @@
       <c r="F25" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="H25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25" t="s">
+        <v>166</v>
+      </c>
+      <c r="J25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1942,8 +2180,17 @@
       <c r="F26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="H26" t="s">
+        <v>166</v>
+      </c>
+      <c r="I26" t="s">
+        <v>166</v>
+      </c>
+      <c r="J26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1959,8 +2206,17 @@
       <c r="F27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="H27" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" t="s">
+        <v>166</v>
+      </c>
+      <c r="J27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1976,8 +2232,17 @@
       <c r="F28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="H28" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" t="s">
+        <v>166</v>
+      </c>
+      <c r="J28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1993,8 +2258,17 @@
       <c r="F29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="H29" t="s">
+        <v>166</v>
+      </c>
+      <c r="I29" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2010,8 +2284,17 @@
       <c r="F30" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="H30" t="s">
+        <v>166</v>
+      </c>
+      <c r="I30" t="s">
+        <v>166</v>
+      </c>
+      <c r="J30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2027,8 +2310,17 @@
       <c r="F31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="H31" t="s">
+        <v>166</v>
+      </c>
+      <c r="I31" t="s">
+        <v>166</v>
+      </c>
+      <c r="J31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2044,8 +2336,17 @@
       <c r="F32" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="H32" t="s">
+        <v>166</v>
+      </c>
+      <c r="I32" t="s">
+        <v>166</v>
+      </c>
+      <c r="J32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2061,8 +2362,17 @@
       <c r="F33" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="H33" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" t="s">
+        <v>166</v>
+      </c>
+      <c r="J33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2078,8 +2388,17 @@
       <c r="F34" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="21">
+      <c r="H34" t="s">
+        <v>166</v>
+      </c>
+      <c r="I34" t="s">
+        <v>166</v>
+      </c>
+      <c r="J34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="21">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2095,8 +2414,17 @@
       <c r="F35" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="H35" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" t="s">
+        <v>166</v>
+      </c>
+      <c r="J35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2112,8 +2440,17 @@
       <c r="F36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="H36" t="s">
+        <v>166</v>
+      </c>
+      <c r="I36" t="s">
+        <v>166</v>
+      </c>
+      <c r="J36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2129,8 +2466,17 @@
       <c r="F37" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="H37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37" t="s">
+        <v>166</v>
+      </c>
+      <c r="J37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2146,8 +2492,17 @@
       <c r="F38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="H38" t="s">
+        <v>166</v>
+      </c>
+      <c r="I38" t="s">
+        <v>166</v>
+      </c>
+      <c r="J38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2163,8 +2518,17 @@
       <c r="F39" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="H39" t="s">
+        <v>166</v>
+      </c>
+      <c r="I39" t="s">
+        <v>166</v>
+      </c>
+      <c r="J39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2180,8 +2544,17 @@
       <c r="F40" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="H40" t="s">
+        <v>166</v>
+      </c>
+      <c r="I40" t="s">
+        <v>166</v>
+      </c>
+      <c r="J40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2197,8 +2570,17 @@
       <c r="F41" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="H41" t="s">
+        <v>166</v>
+      </c>
+      <c r="I41" t="s">
+        <v>166</v>
+      </c>
+      <c r="J41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2214,8 +2596,17 @@
       <c r="F42" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="H42" t="s">
+        <v>166</v>
+      </c>
+      <c r="I42" t="s">
+        <v>166</v>
+      </c>
+      <c r="J42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -2231,8 +2622,17 @@
       <c r="F43" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="H43" t="s">
+        <v>166</v>
+      </c>
+      <c r="I43" t="s">
+        <v>166</v>
+      </c>
+      <c r="J43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>106</v>
       </c>
@@ -2248,8 +2648,17 @@
       <c r="F44" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="H44" t="s">
+        <v>166</v>
+      </c>
+      <c r="I44" t="s">
+        <v>166</v>
+      </c>
+      <c r="J44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -2265,8 +2674,17 @@
       <c r="F45" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="H45" t="s">
+        <v>166</v>
+      </c>
+      <c r="I45" t="s">
+        <v>166</v>
+      </c>
+      <c r="J45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -2282,8 +2700,17 @@
       <c r="F46" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="H46" t="s">
+        <v>166</v>
+      </c>
+      <c r="I46" t="s">
+        <v>166</v>
+      </c>
+      <c r="J46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -2299,8 +2726,17 @@
       <c r="F47" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="H47" t="s">
+        <v>166</v>
+      </c>
+      <c r="I47" t="s">
+        <v>166</v>
+      </c>
+      <c r="J47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -2316,8 +2752,17 @@
       <c r="F48" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="H48" t="s">
+        <v>166</v>
+      </c>
+      <c r="I48" t="s">
+        <v>166</v>
+      </c>
+      <c r="J48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -2333,8 +2778,17 @@
       <c r="F49" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="H49" t="s">
+        <v>166</v>
+      </c>
+      <c r="I49" t="s">
+        <v>166</v>
+      </c>
+      <c r="J49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -2350,8 +2804,17 @@
       <c r="F50" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="H50" t="s">
+        <v>166</v>
+      </c>
+      <c r="I50" t="s">
+        <v>166</v>
+      </c>
+      <c r="J50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -2367,8 +2830,17 @@
       <c r="F51" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="H51" t="s">
+        <v>166</v>
+      </c>
+      <c r="I51" t="s">
+        <v>166</v>
+      </c>
+      <c r="J51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>106</v>
       </c>
@@ -2384,8 +2856,17 @@
       <c r="F52" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="H52" t="s">
+        <v>166</v>
+      </c>
+      <c r="I52" t="s">
+        <v>166</v>
+      </c>
+      <c r="J52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>106</v>
       </c>
@@ -2401,8 +2882,17 @@
       <c r="F53" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="H53" t="s">
+        <v>166</v>
+      </c>
+      <c r="I53" t="s">
+        <v>166</v>
+      </c>
+      <c r="J53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -2418,8 +2908,17 @@
       <c r="F54" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="H54" t="s">
+        <v>166</v>
+      </c>
+      <c r="I54" t="s">
+        <v>166</v>
+      </c>
+      <c r="J54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -2435,8 +2934,17 @@
       <c r="F55" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="H55" t="s">
+        <v>166</v>
+      </c>
+      <c r="I55" t="s">
+        <v>166</v>
+      </c>
+      <c r="J55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>134</v>
       </c>
@@ -2452,8 +2960,17 @@
       <c r="F56" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="H56" t="s">
+        <v>166</v>
+      </c>
+      <c r="I56" t="s">
+        <v>166</v>
+      </c>
+      <c r="J56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -2469,8 +2986,17 @@
       <c r="F57" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="21">
+      <c r="H57" t="s">
+        <v>166</v>
+      </c>
+      <c r="I57" t="s">
+        <v>166</v>
+      </c>
+      <c r="J57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="21">
       <c r="A58" t="s">
         <v>134</v>
       </c>
@@ -2486,8 +3012,17 @@
       <c r="F58" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="H58" t="s">
+        <v>166</v>
+      </c>
+      <c r="I58" t="s">
+        <v>166</v>
+      </c>
+      <c r="J58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>134</v>
       </c>
@@ -2503,8 +3038,17 @@
       <c r="F59" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="21">
+      <c r="H59" t="s">
+        <v>166</v>
+      </c>
+      <c r="I59" t="s">
+        <v>166</v>
+      </c>
+      <c r="J59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="21">
       <c r="A60" t="s">
         <v>134</v>
       </c>
@@ -2519,6 +3063,15 @@
       </c>
       <c r="F60" s="1" t="s">
         <v>158</v>
+      </c>
+      <c r="H60" t="s">
+        <v>166</v>
+      </c>
+      <c r="I60" t="s">
+        <v>166</v>
+      </c>
+      <c r="J60" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/resource/himeji/shop_list.xlsx
+++ b/resource/himeji/shop_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/himeji/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DA796B-9DC8-884C-909F-177F13426917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEE8556-01BB-0248-AD20-FA5B92A7E82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="2240" windowWidth="32920" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="168">
   <si>
     <t>ページ</t>
   </si>
@@ -536,6 +536,13 @@
   </si>
   <si>
     <t>なし</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>お知らせ画像</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ガゾウ </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1491,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1505,7 +1512,7 @@
     <col min="6" max="6" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1536,8 +1543,11 @@
       <c r="J1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1565,8 +1575,11 @@
       <c r="J2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1591,8 +1604,11 @@
       <c r="J3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1617,8 +1633,11 @@
       <c r="J4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1643,8 +1662,11 @@
       <c r="J5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1669,8 +1691,11 @@
       <c r="J6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="21">
+      <c r="K6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1695,8 +1720,11 @@
       <c r="J7" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1721,8 +1749,11 @@
       <c r="J8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1747,8 +1778,11 @@
       <c r="J9" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1773,8 +1807,11 @@
       <c r="J10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1799,8 +1836,11 @@
       <c r="J11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="21">
+      <c r="K11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="21">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1825,8 +1865,11 @@
       <c r="J12" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1851,8 +1894,11 @@
       <c r="J13" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="21">
+      <c r="K13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="21">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1877,8 +1923,11 @@
       <c r="J14" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1903,8 +1952,11 @@
       <c r="J15" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1929,8 +1981,11 @@
       <c r="J16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1955,8 +2010,11 @@
       <c r="J17" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1981,8 +2039,11 @@
       <c r="J18" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2007,8 +2068,11 @@
       <c r="J19" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2033,8 +2097,11 @@
       <c r="J20" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2059,8 +2126,11 @@
       <c r="J21" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2085,8 +2155,11 @@
       <c r="J22" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2111,8 +2184,11 @@
       <c r="J23" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2137,8 +2213,11 @@
       <c r="J24" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2163,8 +2242,11 @@
       <c r="J25" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2189,8 +2271,11 @@
       <c r="J26" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2215,8 +2300,11 @@
       <c r="J27" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2241,8 +2329,11 @@
       <c r="J28" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2267,8 +2358,11 @@
       <c r="J29" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2293,8 +2387,11 @@
       <c r="J30" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2319,8 +2416,11 @@
       <c r="J31" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2345,8 +2445,11 @@
       <c r="J32" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2371,8 +2474,11 @@
       <c r="J33" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2397,8 +2503,11 @@
       <c r="J34" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="21">
+      <c r="K34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="21">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2423,8 +2532,11 @@
       <c r="J35" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2449,8 +2561,11 @@
       <c r="J36" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2475,8 +2590,11 @@
       <c r="J37" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2501,8 +2619,11 @@
       <c r="J38" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2527,8 +2648,11 @@
       <c r="J39" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2553,8 +2677,11 @@
       <c r="J40" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2579,8 +2706,11 @@
       <c r="J41" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2605,8 +2735,11 @@
       <c r="J42" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -2631,8 +2764,11 @@
       <c r="J43" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>106</v>
       </c>
@@ -2657,8 +2793,11 @@
       <c r="J44" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -2683,8 +2822,11 @@
       <c r="J45" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -2709,8 +2851,11 @@
       <c r="J46" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="J47" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -2761,8 +2909,11 @@
       <c r="J48" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -2787,8 +2938,11 @@
       <c r="J49" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -2813,8 +2967,11 @@
       <c r="J50" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -2839,8 +2996,11 @@
       <c r="J51" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>106</v>
       </c>
@@ -2865,8 +3025,11 @@
       <c r="J52" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>106</v>
       </c>
@@ -2891,8 +3054,11 @@
       <c r="J53" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -2917,8 +3083,11 @@
       <c r="J54" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -2943,8 +3112,11 @@
       <c r="J55" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>134</v>
       </c>
@@ -2969,8 +3141,11 @@
       <c r="J56" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -2995,8 +3170,11 @@
       <c r="J57" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="21">
+      <c r="K57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="21">
       <c r="A58" t="s">
         <v>134</v>
       </c>
@@ -3021,8 +3199,11 @@
       <c r="J58" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>134</v>
       </c>
@@ -3047,8 +3228,11 @@
       <c r="J59" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="21">
+      <c r="K59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="21">
       <c r="A60" t="s">
         <v>134</v>
       </c>
@@ -3071,6 +3255,9 @@
         <v>166</v>
       </c>
       <c r="J60" t="s">
+        <v>166</v>
+      </c>
+      <c r="K60" t="s">
         <v>166</v>
       </c>
     </row>
